--- a/server_version/set1.xlsx
+++ b/server_version/set1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>L</t>
   </si>
@@ -43,6 +43,9 @@
     <t>precision</t>
   </si>
   <si>
+    <t>f1-score</t>
+  </si>
+  <si>
     <t>len frequent</t>
   </si>
   <si>
@@ -61,19 +64,19 @@
     <t>number of activities</t>
   </si>
   <si>
+    <t>activities</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
     <t>error</t>
   </si>
   <si>
-    <t>activities</t>
-  </si>
-  <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>IV Antibiotics ER Sepsis Triage IV Liquid CRP Leucocytes Admission IC Admission NC Return ER ER Triage ER Registration LacticAcid Release A</t>
+    <t>ER Registration Release A IV Liquid IV Antibiotics ER Triage Return ER Admission NC CRP LacticAcid Leucocytes ER Sepsis Triage Admission IC</t>
   </si>
 </sst>
 </file>
@@ -405,13 +408,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,8 +469,11 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
@@ -481,7 +487,7 @@
         <v>0.7</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -496,31 +502,34 @@
         <v>0.2182351972135932</v>
       </c>
       <c r="J2">
+        <v>0.3582808930701581</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>111</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>842</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>12</v>
       </c>
-      <c r="P2">
-        <v>1.278580188751221</v>
-      </c>
-      <c r="R2" t="s">
-        <v>19</v>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2">
+        <v>1.645598173141479</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>1</v>
       </c>
@@ -534,7 +543,7 @@
         <v>0.7</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -549,28 +558,31 @@
         <v>0.2182351972135932</v>
       </c>
       <c r="J3">
+        <v>0.3582808930701581</v>
+      </c>
+      <c r="K3">
         <v>3</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>111</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>842</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>12</v>
       </c>
-      <c r="P3">
-        <v>1.40324878692627</v>
-      </c>
-      <c r="R3" t="s">
-        <v>19</v>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3">
+        <v>1.455109834671021</v>
       </c>
     </row>
   </sheetData>
